--- a/Шаблоны/Scenar9.xlsx
+++ b/Шаблоны/Scenar9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45505</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1528,9 @@
       <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
       <c r="F7" s="30" t="s">
         <v>26</v>
       </c>
@@ -1547,7 +1549,9 @@
       <c r="D8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
       <c r="F8" s="30" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +1608,9 @@
       <c r="D11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="22">
+        <v>2</v>
+      </c>
       <c r="F11" s="24" t="s">
         <v>26</v>
       </c>
@@ -1624,7 +1630,9 @@
       <c r="D12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22">
+        <v>2</v>
+      </c>
       <c r="F12" s="24" t="s">
         <v>25</v>
       </c>

--- a/Шаблоны/Scenar9.xlsx
+++ b/Шаблоны/Scenar9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -472,6 +472,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -779,7 +782,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45509</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,10 +872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B160"/>
+  <dimension ref="B1:F161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,489 +883,653 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F28" s="32"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F40" s="32"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F41" s="32"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F44" s="32"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F47" s="32"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F48" s="32"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="31"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="31"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="31"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="31"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F55" s="32"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="31"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F57" s="32"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="31"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="31"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="31"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="31"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F61" s="32"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="31"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F62" s="32"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="31"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F63" s="32"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="31"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F64" s="32"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="31"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F65" s="32"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="31"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F66" s="32"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="31"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F67" s="32"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="31"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="31"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F69" s="32"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="31"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F70" s="32"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="31"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F71" s="32"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="31"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="31"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="31"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="31"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="31"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="31"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="31"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="31"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="31"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="31"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="31"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F82" s="32"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="31"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="31"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="31"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="31"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="31"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="31"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F88" s="32"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="31"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="31"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F90" s="32"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="31"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="31"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F92" s="32"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="31"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F93" s="32"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="31"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F94" s="32"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="31"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F95" s="32"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="31"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F96" s="32"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="31"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F97" s="32"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="31"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F98" s="32"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="31"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="31"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F100" s="32"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="31"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F101" s="32"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="31"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F102" s="32"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="31"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F103" s="32"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="31"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F104" s="32"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="31"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F105" s="32"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="31"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F106" s="32"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="31"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F107" s="32"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="31"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="31"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F109" s="32"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="31"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F110" s="32"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="31"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F111" s="32"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="31"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F112" s="32"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="31"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F113" s="32"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="31"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F114" s="32"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="31"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F115" s="32"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="31"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F116" s="32"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="31"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F117" s="32"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="31"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F118" s="32"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="31"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F119" s="32"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="31"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F120" s="32"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="31"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F121" s="32"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="31"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F122" s="32"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="31"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F123" s="32"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="31"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F124" s="32"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="31"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F125" s="32"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="31"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F126" s="32"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="31"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F127" s="32"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="31"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F128" s="32"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="31"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F129" s="32"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="31"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F130" s="32"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="31"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F131" s="32"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="31"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F132" s="32"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="31"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F133" s="32"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="31"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F134" s="32"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="31"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F135" s="32"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="31"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F136" s="32"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="31"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F137" s="32"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="31"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F138" s="32"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="31"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F139" s="32"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="31"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F140" s="32"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="31"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F141" s="32"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="31"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F142" s="32"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="31"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F143" s="32"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="31"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F144" s="32"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="31"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F145" s="32"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="31"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F146" s="32"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="31"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F147" s="32"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="31"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F148" s="32"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="31"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F149" s="32"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="31"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F150" s="32"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="31"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F151" s="32"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="31"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F152" s="32"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="31"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F153" s="32"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="31"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F154" s="32"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="31"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F155" s="32"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="31"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F156" s="32"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="31"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F157" s="32"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="31"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F158" s="32"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="31"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="F159" s="32"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="31"/>
+      <c r="F160" s="32"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Шаблоны/Scenar9.xlsx
+++ b/Шаблоны/Scenar9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>ОПУ_6У_Светодиод</t>
+  </si>
+  <si>
+    <t>Осмотреть ячейки 1 и 2 СШ 6 кВ.</t>
+  </si>
+  <si>
+    <t>РУ6_Ячейки_1_2</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -475,6 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -782,7 +789,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F161"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,15 +1738,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
-        <v>47</v>
+      <c r="C9" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="30" t="s">
-        <v>48</v>
+      <c r="F9" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>28</v>

--- a/Шаблоны/Scenar9.xlsx
+++ b/Шаблоны/Scenar9.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -148,18 +148,6 @@
     <t>На терминале ЦС горит светодиод «Земля на 1 СШ 6 кВ», «Земля на 2 СШ 6 кВ».</t>
   </si>
   <si>
-    <t>ОРУ35_ТН1_35_A_B_C</t>
-  </si>
-  <si>
-    <t>Измерить напряжение на ТН-1 6 на фазах А0, В0, С0.</t>
-  </si>
-  <si>
-    <t>ОРУ35_ТН2_35_A_B_C</t>
-  </si>
-  <si>
-    <t>Измерить напряжение на ТН-2 6 на фазах А0, В0, С0.</t>
-  </si>
-  <si>
     <t>ОПУ_Боты_Надеть</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>РУ6_ТН-1_Фазы</t>
   </si>
   <si>
-    <t>Измерить напряжения на фазах А, В, С.</t>
-  </si>
-  <si>
     <t>Включить В 6 ф-516.</t>
   </si>
   <si>
@@ -242,6 +227,63 @@
   </si>
   <si>
     <t>РУ6_Ячейки_1_2</t>
+  </si>
+  <si>
+    <t>ОПУ_ТН2_6_A_B_C</t>
+  </si>
+  <si>
+    <t>ОПУ_ТН1_6_A_B_C</t>
+  </si>
+  <si>
+    <t>Измерить напряжение на ТН-1 6 на фазах А0, В0, С0, AB, BC, CA.</t>
+  </si>
+  <si>
+    <t>Измерить напряжение на ТН-2 6 на фазах А0, В0, С0, AB, BC, CA.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 ф-516 по механическому указателю</t>
+  </si>
+  <si>
+    <t>РУ6_ф-516_Указатель</t>
+  </si>
+  <si>
+    <t>Измерить напряжения на фазах А, В, С, АВ, ВС, СА.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение В 6 ф-516 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 ф-515 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>РУ6_ф-514_Указатель</t>
+  </si>
+  <si>
+    <t>РУ6_ф-515_Указатель</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение В 6 ф-515 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>РУ6_ф-517_Указатель</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 ф-517 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение В 6 ф-517 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>РУ6_ф-518_Указатель</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 ф-518 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение В 6 ф-518 по механическому указателю.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 ф-514 по механическому указателю.</t>
   </si>
 </sst>
 </file>
@@ -417,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -482,6 +524,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -780,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,7 +840,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45553</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1671,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>29</v>
@@ -1639,14 +1690,14 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="30" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>27</v>
@@ -1658,14 +1709,14 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="30" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>27</v>
@@ -1677,14 +1728,14 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>28</v>
@@ -1697,7 +1748,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>33</v>
@@ -1718,7 +1769,7 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>34</v>
@@ -1739,14 +1790,14 @@
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>28</v>
@@ -1758,14 +1809,14 @@
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>28</v>
@@ -1777,7 +1828,7 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>33</v>
@@ -1799,7 +1850,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>34</v>
@@ -1821,7 +1872,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>30</v>
@@ -1830,50 +1881,50 @@
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>13</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>32</v>
+        <v>71</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="22">
-        <v>2</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>27</v>
@@ -1885,70 +1936,70 @@
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>32</v>
+        <v>71</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E17" s="22">
         <v>2</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>17</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>18</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>30</v>
@@ -1956,41 +2007,41 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>19</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>20</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>30</v>
@@ -1999,255 +2050,399 @@
         <v>2</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>21</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="23" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E23" s="22">
-        <v>4</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>23</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="23" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="22">
-        <v>2</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>24</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="E25" s="22">
-        <v>1</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>25</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E26" s="22">
-        <v>5</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>26</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>32</v>
+        <v>78</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="22">
-        <v>1</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>27</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="22">
+        <v>1</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D30" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="22">
+        <v>4</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="22">
+        <v>2</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="22">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="22">
+        <v>5</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="26" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="16"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="16"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="16"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="16"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="16"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="17"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" s="16"/>
       <c r="F39" s="19"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" s="16"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="16"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" s="16"/>
       <c r="F42" s="19"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43" s="16"/>
       <c r="F43" s="19"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44" s="16"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" s="16"/>
       <c r="F45" s="19"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="F46" s="19"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="17"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" s="16"/>
       <c r="F47" s="19"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="17"/>
       <c r="D48" s="16"/>
       <c r="F48" s="19"/>
       <c r="G48" s="7"/>
@@ -2260,64 +2455,63 @@
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D50" s="16"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" s="16"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" s="16"/>
       <c r="F52" s="19"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" s="16"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="11"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="16"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="11"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="16"/>
       <c r="F55" s="19"/>
       <c r="G55" s="8"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="17"/>
       <c r="D56" s="16"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="10"/>
+      <c r="D57" s="16"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="17"/>
       <c r="D58" s="16"/>
       <c r="F58" s="19"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="17"/>
+      <c r="D59" s="16"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="6"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="18"/>
+      <c r="D60" s="16"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
+      <c r="D61" s="16"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="16"/>
@@ -2325,131 +2519,127 @@
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="12"/>
+      <c r="D63" s="11"/>
       <c r="F63" s="19"/>
       <c r="G63" s="8"/>
     </row>
     <row r="64" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="12"/>
+      <c r="D64" s="11"/>
       <c r="F64" s="19"/>
       <c r="G64" s="8"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="D65" s="16"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
+      <c r="D66" s="10"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
+      <c r="D67" s="16"/>
       <c r="F67" s="19"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="18"/>
+      <c r="D68" s="17"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D69" s="18"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="17"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="18"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="13"/>
+      <c r="D71" s="16"/>
       <c r="F71" s="19"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="10"/>
+    <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="12"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="10"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="12"/>
       <c r="F73" s="19"/>
       <c r="G73" s="8"/>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
-      <c r="D74" s="18"/>
+      <c r="D74" s="17"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="7"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" s="20"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="18"/>
       <c r="F76" s="19"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="17"/>
       <c r="D77" s="18"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="19"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="17"/>
       <c r="D78" s="18"/>
-      <c r="F78" s="4"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="17"/>
-      <c r="D79" s="14"/>
-      <c r="F79" s="4"/>
+      <c r="D79" s="13"/>
+      <c r="F79" s="19"/>
       <c r="G79" s="8"/>
     </row>
     <row r="80" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="14"/>
-      <c r="F80" s="4"/>
+      <c r="D80" s="13"/>
+      <c r="F80" s="19"/>
       <c r="G80" s="8"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="21"/>
-      <c r="D81" s="18"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="7"/>
+      <c r="D81" s="10"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="18"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="6"/>
+      <c r="D82" s="10"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="21"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="18"/>
-      <c r="F83" s="4"/>
+      <c r="F83" s="19"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="17"/>
       <c r="D84" s="18"/>
-      <c r="F84" s="4"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="17"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="18"/>
-      <c r="F85" s="4"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.25">
@@ -2458,7 +2648,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
       <c r="F87" s="4"/>
@@ -2466,20 +2656,20 @@
     </row>
     <row r="88" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="17"/>
-      <c r="D88" s="18"/>
+      <c r="D88" s="14"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="6"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="17"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="14"/>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="15"/>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="21"/>
+      <c r="D90" s="18"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="8"/>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D91" s="18"/>
@@ -2487,7 +2677,7 @@
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="17"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="18"/>
       <c r="F92" s="4"/>
       <c r="G92" s="7"/>
@@ -2495,17 +2685,68 @@
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D93" s="18"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="6"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="17"/>
       <c r="D94" s="18"/>
       <c r="F94" s="4"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D95" s="10"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="18"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="8"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="17"/>
+      <c r="D96" s="18"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="17"/>
+      <c r="D97" s="18"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="17"/>
+      <c r="D98" s="15"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="15"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="18"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="18"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D103" s="18"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="10"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
